--- a/data/trans_bre/P14_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-9,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>195,88%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-38,74%</t>
+          <t>-48,45%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,35</t>
+          <t>-7,97; 10,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 5,31</t>
+          <t>-28,23; 5,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-87,34; 145,22</t>
+          <t>-87,25; 80,0</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,01%</t>
+          <t>320,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>43,12%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 5,0</t>
+          <t>-0,45; 14,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 12,42</t>
+          <t>-10,33; 21,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-88,67; 391,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 144,64</t>
+          <t>-45,61; 368,74</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>31,86%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 9,91</t>
+          <t>-9,41; 10,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 16,09</t>
+          <t>-7,7; 19,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 296,54</t>
+          <t>-54,93; 258,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 146,97</t>
+          <t>-27,53; 162,74</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-60,89%</t>
+          <t>-69,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,99%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -0,88</t>
+          <t>-15,37; -0,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 8,48</t>
+          <t>-11,4; 11,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-87,74; -1,75</t>
+          <t>-100,0; 38,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,29; 68,08</t>
+          <t>-45,86; 101,36</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,82</t>
+          <t>-7,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-16,8%</t>
+          <t>-35,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-40,48%</t>
+          <t>-45,98%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 4,28</t>
+          <t>-6,27; 4,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 1,76</t>
+          <t>-18,45; 5,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-84,69; 277,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 30,82</t>
+          <t>-86,98; 89,7</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>598,44%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,36</t>
+          <t>0,0; 9,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 16,03</t>
+          <t>2,17; 25,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,69%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,05</t>
+          <t>-2,17; 4,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,0</t>
+          <t>-4,21; 7,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 53,29</t>
+          <t>-33,86; 136,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 45,92</t>
+          <t>-21,06; 58,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,95</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>86,63%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-48,45%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.93588501969602</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-9.367219118908931</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.9862646640998487</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.4780265160644573</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,97; 10,99</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-28,23; 5,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-87,25; 80,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.910726774466283</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-26.47851149042429</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.8809727977597398</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.89516555730959</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.290989910762502</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>0.7763400605070226</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,29</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>320,91%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>43,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 14,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,33; 21,38</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-45,61; 368,74</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.421206889661146</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.243943182011819</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>4.059994925279149</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.4508405653039761</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>23,37%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>31,86%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.0492756259392127</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.850451772006174</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="n">
+        <v>-0.4447907281944273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,41; 10,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 19,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-54,93; 258,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-27,53; 162,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.42039817660203</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>21.13689427056186</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>3.445724880208167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +708,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,85</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-69,7%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.181691837831318</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.189128380698218</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.2220588958863942</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.3790593613305621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-15,37; -0,45</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,4; 11,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 38,18</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-45,86; 101,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.999466041637717</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.379548647601839</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.5679637289570493</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2359050774273997</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.5526316692315</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.17418674556484</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>2.672331370559299</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.863039262118856</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,23</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-35,69%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-45,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,27; 4,64</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-18,45; 5,09</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-86,98; 89,7</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-6.835892845582965</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.182084549766277</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.7122218595204058</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.0614067664456203</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,88</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-15.18120309249539</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.93796637124988</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.5122381152798871</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 25,97</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.5923268369425636</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.855160970646731</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2736466202384922</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.7809693407989076</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +836,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>21,06%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>11,54%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.369900971035133</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-7.780196909108489</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.4220961598487757</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.4972117707639299</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 4,57</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 7,11</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-33,86; 136,14</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-21,06; 58,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.750068752457543</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-18.45044440256736</v>
+      </c>
+      <c r="E17" s="6" t="inlineStr"/>
+      <c r="F17" s="6" t="n">
+        <v>-0.8810704467314306</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.113064950949282</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4.251063658176311</v>
+      </c>
+      <c r="E18" s="6" t="inlineStr"/>
+      <c r="F18" s="6" t="n">
+        <v>0.8308933032104195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2.050507854278747</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>10.90917664916083</v>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.978558443866622</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>9.297201219898419</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>28.67668150498474</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.003668522115731</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.639848218970774</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.20026908339114</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.1050834647961219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.081596556890533</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.146605583212367</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.3268717396599977</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2261770800232558</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.38719113266302</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.079003410670833</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>1.306694804917934</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.5609845874383662</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1018,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
